--- a/predict/pred_result_with_ad/test/tg413_aerosol_maccs_mdTrue_dt.xlsx
+++ b/predict/pred_result_with_ad/test/tg413_aerosol_maccs_mdTrue_dt.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.721450847557007</v>
+        <v>3.732206187378709</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6366.317541686532</v>
+        <v>6374.244934038207</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.130016664267969</v>
+        <v>7.145702861375708</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>547250.1964136108</v>
+        <v>547310.0902214191</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.308791812795851</v>
+        <v>5.339675744411109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>261422.700961281</v>
+        <v>261629.8530023691</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.130989887658511</v>
+        <v>3.155462019642916</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>143886.9524606118</v>
+        <v>144348.4868195336</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.075068430548541</v>
+        <v>7.083355287016798</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>525902.5775933622</v>
+        <v>526137.6516823086</v>
       </c>
     </row>
     <row r="7">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.535685694396802</v>
+        <v>5.535765942222527</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>283291.7681037806</v>
+        <v>283326.2232843618</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.264137026056534</v>
+        <v>4.266503919295635</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>283798.0687032915</v>
+        <v>283905.1266142745</v>
       </c>
     </row>
     <row r="9">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.946216655120103</v>
+        <v>4.98096882694794</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>303571.6208404949</v>
+        <v>304016.2425470704</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.416700278695275</v>
+        <v>3.435836968363446</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>176778.4035404679</v>
+        <v>176760.2922141303</v>
       </c>
     </row>
     <row r="11">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.962714963234709</v>
+        <v>3.985287316197348</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.929646733357845</v>
+        <v>6.929645887651409</v>
       </c>
     </row>
     <row r="12">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.065864391392155</v>
+        <v>5.072817407402304</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>332054.4102965048</v>
+        <v>332624.8021244369</v>
       </c>
     </row>
   </sheetData>
